--- a/Country allocation.xlsx
+++ b/Country allocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EBA087-3E85-4454-9877-B65639579087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25ED7CCE-5533-47B2-AB5E-42D8A5D8D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2625EF9-C1C8-4FC1-9D81-188AB8B3FFCE}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,10 +431,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.7</v>
+        <v>0.498833115296896</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.501166884703103</v>
       </c>
     </row>
   </sheetData>
